--- a/biology/Médecine/Claude_Maillard/Claude_Maillard.xlsx
+++ b/biology/Médecine/Claude_Maillard/Claude_Maillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Maillard, née à Paris en 1927, est médecin gynécologue, psychanalyste et écrivaine.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Maillard a exercé la médecine en Afrique de l'Ouest, aux Antilles, au Brésil et en France où elle adhère au Mouvement pour la liberté de l'avortement et de la contraception (MLAC) et est signataire du Manifeste des 343.
 Elle effectue des recherches médicales à Palo Alto (San Francisco) et à l'Université Tulane à la Nouvelle-Orléans. Elle est docteur en Sciences Humaines et Cliniques. Elle est membre du Cercle Freudien, de la Société Psychiatrie-Psychanalyse, adhérente du Centre de formation et de recherche psychanalytiques (CFRP), d’Insistance et de Psychanalyse actuelle.
-Intellectuelle engagée, compagne de Roberto Vergnes, l'un des fidèles de Che Guevara[1], elle participe activement durant toute sa vie à de nombreuses mobilisations et aux débats de société[2].
-Elle est l’auteur de nombreux romans, d'œuvres photographiques, sonores ou électroniques comme des poèmes visuels ou numériques et de livres rares et précieux. Elle contribue avec Pierrette Turlais aux premiers ouvrages des Editions Artulis dont Claude Maillard, Agataké. Fille et sœur du scribe, ouvrage émouvant prenant appui sur l'écriture illisible de la propre sœur de Claude Maillard, ayant perdu la maîtrise de l'écriture et de la parole[3].
-Claude Maillard a également publié des essais sous le pseudonyme de Rose de Saint-Projet et des livres pour enfants sous le pseudonyme de Claude Malois[4].
-La Bibliothèque nationale de France est dépositaire du Fonds Claude Maillard, déposé par ses soins en 2012, et qui a fait l'objet d'un inventaire[5]. Claude Maillard a également fait don à la BnF des archives de Robert Vergnes, décédé en 2004, rassemblant de nombreux témoignages et documents témoignant de leurs voyages communs et découvertes archéologiques[6].
-Ses travaux font l'objet de nombreuses citations et références dans nombre de recherches universitaires[7].
+Intellectuelle engagée, compagne de Roberto Vergnes, l'un des fidèles de Che Guevara, elle participe activement durant toute sa vie à de nombreuses mobilisations et aux débats de société.
+Elle est l’auteur de nombreux romans, d'œuvres photographiques, sonores ou électroniques comme des poèmes visuels ou numériques et de livres rares et précieux. Elle contribue avec Pierrette Turlais aux premiers ouvrages des Editions Artulis dont Claude Maillard, Agataké. Fille et sœur du scribe, ouvrage émouvant prenant appui sur l'écriture illisible de la propre sœur de Claude Maillard, ayant perdu la maîtrise de l'écriture et de la parole.
+Claude Maillard a également publié des essais sous le pseudonyme de Rose de Saint-Projet et des livres pour enfants sous le pseudonyme de Claude Malois.
+La Bibliothèque nationale de France est dépositaire du Fonds Claude Maillard, déposé par ses soins en 2012, et qui a fait l'objet d'un inventaire. Claude Maillard a également fait don à la BnF des archives de Robert Vergnes, décédé en 2004, rassemblant de nombreux témoignages et documents témoignant de leurs voyages communs et découvertes archéologiques.
+Ses travaux font l'objet de nombreuses citations et références dans nombre de recherches universitaires.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Dissection, Flammarion, 1967
 Les Vespasiennes de Paris ou les précieux édicules, La Jeune Parque, 1967
@@ -611,13 +627,15 @@
           <t>Ouvrages en collaboration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hitler à travers la caricature internationale, avec Jean-Claude Simoën, Albin Michel, 1974
 Sébastien. Chat Vive. Live Cat. Notre Livre, avec Coco Gordon, Coco Gordon, NYC, 1987
 Ça Image, avec Bernard Lantéri, Argraphie, 1991
 La Canopée malaise, avec Pierre Jacerme, Artulis, 2001.
-Portraits de sept femmes psychanalystes (avec C. Maillard, textes de C. Casadamont, F. Delbary-Jacerme, M. Dolin, P. Hassoun, D. Kohen et S. Molina), livre d'artiste avec 7 portraits lithographiés par Bernard Gabriel Lafabrie, éditions Bernard Gabriel Lafabrie, 2003[8]</t>
+Portraits de sept femmes psychanalystes (avec C. Maillard, textes de C. Casadamont, F. Delbary-Jacerme, M. Dolin, P. Hassoun, D. Kohen et S. Molina), livre d'artiste avec 7 portraits lithographiés par Bernard Gabriel Lafabrie, éditions Bernard Gabriel Lafabrie, 2003</t>
         </is>
       </c>
     </row>
